--- a/pred_ohlcv/54_21/2020-01-21 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ADA ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>251608.73</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>251838.8956</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>251838.8956</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>245847.6398</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>358944.5949933001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>359180.6004933001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>386318.6336933001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>338346.0747933001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>306807.3153933001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>342577.1735933001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>344683.1384933001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>450060.7194933001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>453762.3181432401</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>453638.8382747201</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>412504.6060747202</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>317688.4610747201</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-363331.3144520599</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-435106.7849520601</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-412539.4380520601</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-272817.2275520601</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-292376.8365520601</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-291563.4133520601</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-178118.10665206</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-192684.79875206</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-189999.6653520601</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-186315.03685206</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1523593.16437877</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1730610.13370547</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1730610.13370547</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1730599.59240547</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1732877.31250547</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1757138.21250547</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1733031.68130547</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1689196.87870547</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1670232.11640547</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1675324.94430547</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1674052.25700547</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1674052.25700547</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1607336.49730547</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1564386.49730547</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>1564614.57820547</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1560595.61700547</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1559469.447605469</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1543939.59646049</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1476789.23946049</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1512546.03206049</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1512423.302660489</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1821934.00250203</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1787144.00250203</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1788404.29240203</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1788404.29240203</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1808491.256102029</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1808491.256102029</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>1804056.256102029</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 ADA ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>251608.73</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>251838.8956</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>251838.8956</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>245847.6398</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>245847.6398</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>245847.6398</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>240475.2116</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>240475.2116</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>240492.0443</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>235197.99092024</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>235513.62602024</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>358944.5949933001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>359180.6004933001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>386318.6336933001</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>338346.0747933001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>306807.3153933001</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>342577.1735933001</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>344683.1384933001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>450060.7194933001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>453762.3181432401</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>453638.8382747201</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>412504.6060747202</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>317688.4610747201</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-363331.3144520599</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-435106.7849520601</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-412539.4380520601</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-272817.2275520601</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-292376.8365520601</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-291563.4133520601</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-288480.73115206</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-178118.10665206</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-208118.10665206</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-192684.79875206</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-189999.6653520601</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-192844.57455206</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-192844.57455206</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-189549.47075206</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-190281.09585206</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-190689.55795206</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-186315.03685206</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-178284.13115206</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-180241.05955206</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-156222.92405206</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>273113.5475479399</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>271886.66694794</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>256292.7390479399</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>256292.7390479399</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>256313.7390479399</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>282841.6374189699</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>344939.97111897</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1498464.16437877</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1523593.16437877</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1730610.13370547</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1730610.13370547</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1730599.59240547</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>1732877.31250547</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1757138.21250547</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1733031.68130547</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1689196.87870547</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1670232.11640547</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1675324.94430547</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1674052.25700547</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1674052.25700547</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1607336.49730547</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1564386.49730547</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>1564614.57820547</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1560595.61700547</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1476789.23946049</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1512546.03206049</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1512423.302660489</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1821934.00250203</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1787144.00250203</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1788404.29240203</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1788404.29240203</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1808491.256102029</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>1804056.256102029</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
